--- a/DataTransaksi.xlsx
+++ b/DataTransaksi.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project_Django\SpkAproriSiti\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E4AB0FA-E1A9-46D4-B9ED-FFEA8C26FDD9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1AD7F624-7BCE-4115-8AB3-D3EFE54E10DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{8641B7E8-2659-4CFE-ACE7-53F633DEAFC4}"/>
   </bookViews>
@@ -416,7 +416,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{18EE2FF8-81EB-4F5B-A342-189FB35FC941}">
   <dimension ref="A1:B8706"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7092" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A8673" workbookViewId="0">
       <selection activeCell="C7102" sqref="C7102"/>
     </sheetView>
   </sheetViews>
